--- a/raw/1954election.xlsx
+++ b/raw/1954election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEECF915-1844-1047-9DC8-450F3C2F4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABB947-6CD5-524C-809F-DF59F0AD2375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="15900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6242,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1117" zoomScale="209" workbookViewId="0">
-      <selection activeCell="D1135" sqref="D1135"/>
+    <sheetView tabSelected="1" topLeftCell="A509" zoomScale="209" workbookViewId="0">
+      <selection activeCell="C519" sqref="C519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13614,7 +13614,7 @@
         <v>450</v>
       </c>
       <c r="C324" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D324" t="s">
         <v>12</v>
@@ -13637,7 +13637,7 @@
         <v>450</v>
       </c>
       <c r="C325" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D325" t="s">
         <v>12</v>
@@ -13660,7 +13660,7 @@
         <v>450</v>
       </c>
       <c r="C326" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D326" t="s">
         <v>10</v>
@@ -13683,7 +13683,7 @@
         <v>450</v>
       </c>
       <c r="C327" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D327" t="s">
         <v>10</v>
@@ -13706,7 +13706,7 @@
         <v>450</v>
       </c>
       <c r="C328" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D328" t="s">
         <v>18</v>
@@ -13729,7 +13729,7 @@
         <v>450</v>
       </c>
       <c r="C329" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D329" t="s">
         <v>18</v>
@@ -17900,7 +17900,7 @@
         <v>631</v>
       </c>
       <c r="C515" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D515" t="s">
         <v>12</v>
@@ -17923,7 +17923,7 @@
         <v>631</v>
       </c>
       <c r="C516" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D516" t="s">
         <v>12</v>
@@ -17946,7 +17946,7 @@
         <v>631</v>
       </c>
       <c r="C517" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D517" t="s">
         <v>10</v>
@@ -17969,7 +17969,7 @@
         <v>631</v>
       </c>
       <c r="C518" t="s">
-        <v>53</v>
+        <v>1537</v>
       </c>
       <c r="D518" t="s">
         <v>10</v>

--- a/raw/1954election.xlsx
+++ b/raw/1954election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABB947-6CD5-524C-809F-DF59F0AD2375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E0EA97-C1E1-224B-A0BA-C49F4A028BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="15900" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6003" uniqueCount="1808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="1808">
   <si>
     <t>State</t>
   </si>
@@ -6242,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" zoomScale="209" workbookViewId="0">
-      <selection activeCell="C519" sqref="C519"/>
+    <sheetView tabSelected="1" topLeftCell="B815" zoomScale="209" workbookViewId="0">
+      <selection activeCell="D832" sqref="D832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -24823,8 +24823,8 @@
       <c r="C830" t="s">
         <v>11</v>
       </c>
-      <c r="D830" t="s">
-        <v>87</v>
+      <c r="D830">
+        <v>11</v>
       </c>
       <c r="E830" t="s">
         <v>1671</v>
@@ -24846,8 +24846,8 @@
       <c r="C831" t="s">
         <v>11</v>
       </c>
-      <c r="D831" t="s">
-        <v>87</v>
+      <c r="D831">
+        <v>11</v>
       </c>
       <c r="E831" t="s">
         <v>955</v>
